--- a/docs/source/index/tables/t1_overview_proteomics.xlsx
+++ b/docs/source/index/tables/t1_overview_proteomics.xlsx
@@ -20,33 +20,21 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
-  <si>
-    <t xml:space="preserve">Table</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="5">
+  <si>
+    <t xml:space="preserve">Dataset</t>
   </si>
   <si>
     <t xml:space="preserve">Description</t>
   </si>
   <si>
-    <t xml:space="preserve">See Also</t>
-  </si>
-  <si>
-    <t xml:space="preserve">t1_overview_proteomics</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Proteomic example datasets</t>
-  </si>
-  <si>
-    <t xml:space="preserve">aa.load_dataset</t>
-  </si>
-  <si>
-    <t xml:space="preserve">t2_overview_enrichment</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Enrichment analysis results corresponding to proteomic datasets</t>
-  </si>
-  <si>
-    <t xml:space="preserve">aa.load_enrichment</t>
+    <t xml:space="preserve">Reference</t>
+  </si>
+  <si>
+    <t xml:space="preserve">XX</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Monasor20</t>
   </si>
 </sst>
 </file>
@@ -170,10 +158,10 @@
   <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
+      <selection pane="topLeft" activeCell="F9" activeCellId="0" sqref="F9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.78515625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.8046875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="27.41"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="22.83"/>
@@ -197,22 +185,16 @@
         <v>3</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>5</v>
-      </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>8</v>
-      </c>
+      <c r="A3" s="2"/>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C4" s="2"/>
